--- a/PSG_Level_Matrix.xlsx
+++ b/PSG_Level_Matrix.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\user\Desktop\HR Assessment Tool\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{189BD814-94EC-453E-8861-84123D044DB8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{416E2EBE-78A8-4047-BA92-F42AD6A1D312}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="1920" windowWidth="23040" windowHeight="10728" xr2:uid="{BAB16E7C-2E21-48CF-9F5C-3A7B3F6C2B10}"/>
+    <workbookView xWindow="-24" yWindow="3648" windowWidth="23040" windowHeight="10728" xr2:uid="{BAB16E7C-2E21-48CF-9F5C-3A7B3F6C2B10}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -541,7 +541,7 @@
   <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H6" sqref="H6"/>
+      <selection activeCell="E1" sqref="E1:E1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -657,25 +657,25 @@
         <v>9</v>
       </c>
       <c r="B5" s="4">
+        <v>1</v>
+      </c>
+      <c r="C5" s="4">
+        <v>1</v>
+      </c>
+      <c r="D5" s="4">
         <v>2</v>
       </c>
-      <c r="C5" s="4">
+      <c r="E5" s="4">
+        <v>2</v>
+      </c>
+      <c r="F5" s="4">
         <v>3</v>
       </c>
-      <c r="D5" s="4">
-        <v>4</v>
-      </c>
-      <c r="E5" s="4">
-        <v>5</v>
-      </c>
-      <c r="F5" s="4">
-        <v>6</v>
-      </c>
       <c r="G5" s="4">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="H5" s="7">
-        <v>13</v>
+        <v>4</v>
       </c>
     </row>
     <row r="6" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
